--- a/days.xlsx
+++ b/days.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Mondaay</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,16 +481,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>monday</t>
+          <t>mondaay</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>MONDAAY</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
